--- a/ParserData.xlsx
+++ b/ParserData.xlsx
@@ -390,7 +390,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -405,10 +405,10 @@
         <v>1.0</v>
       </c>
       <c r="G3" s="2">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="H3" s="2">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -416,7 +416,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -431,10 +431,10 @@
         <v>1.0</v>
       </c>
       <c r="G4" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H4" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -442,7 +442,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="2">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="C5" s="2">
         <v>50.0</v>
@@ -457,10 +457,10 @@
         <v>50.0</v>
       </c>
       <c r="G5" s="2">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="H5" s="2">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
